--- a/JavaScript Advanced 01 - Scope%2c Closure and Hoisting - Self Checklist.xlsx
+++ b/JavaScript Advanced 01 - Scope%2c Closure and Hoisting - Self Checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="12744" yWindow="924" windowWidth="27240" windowHeight="16440"/>
+    <workbookView xWindow="12744" yWindow="924" windowWidth="27240" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Advanced 01" sheetId="1" r:id="rId1"/>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
